--- a/_metadesc/parse-blog-result.xlsx
+++ b/_metadesc/parse-blog-result.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\langkung\fuelcycle\_metadesc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F21454F1-47B9-4439-A114-4F1177E6324A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5A4281-D166-497A-9EC5-89C7793C23DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="-285" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="m" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="899">
   <si>
     <t>https://fuelcycle.com/blog/</t>
   </si>
@@ -136,12 +136,6 @@
     <t>Employee experience remains paramount to organizational success. Learn how online communities can bridge the gap between corporate goals and employee happiness.</t>
   </si>
   <si>
-    <t>https://fuelcycle.com/blog/tips-tricks-using-new-fuel-cycle-email-composer-2/</t>
-  </si>
-  <si>
-    <t>It’s important for emails to be visual with easy-to-see calls to action. Check out this new feature makes creating campaigns simple and fun.</t>
-  </si>
-  <si>
     <t>https://fuelcycle.com/blog/why-it-pays-to-be-an-insights-research-driven-business/</t>
   </si>
   <si>
@@ -1873,12 +1867,6 @@
     <t>Read this quick overview of how to get started with usability research, so you can set yourself apart from your competitors.</t>
   </si>
   <si>
-    <t>https://fuelcycle.com/blog/listen-to-finding-the-edges-latest-podcast-episode-conjoint-ly-2/</t>
-  </si>
-  <si>
-    <t>Listen to the podcast hear about Nik Samoylov's journey from consultant to CEO and what he learned on his path to becoming a research solution provider.</t>
-  </si>
-  <si>
     <t>https://fuelcycle.com/blog/simple-answer-employee-retention/</t>
   </si>
   <si>
@@ -1987,12 +1975,6 @@
     <t>Learn how to adapt to remain successful where businesses are constantly evolving. Look at the practical benefits of market research for business.</t>
   </si>
   <si>
-    <t>https://fuelcycle.com/blog/announcing-fuel-cycles-newest-sales-director-3/</t>
-  </si>
-  <si>
-    <t>Get to know Travis Crosby, Fuel Cycle's newest sales director. Travis has over 15 years of research experience collaborating with Fortune 500 clients.</t>
-  </si>
-  <si>
     <t>https://fuelcycle.com/blog/agile-research-company-hero/</t>
   </si>
   <si>
@@ -2059,12 +2041,6 @@
     <t>Explore predictive analytics, how it's gaining speed in the business world and its benefit to online communities and the market research industry as a whole.</t>
   </si>
   <si>
-    <t>https://fuelcycle.com/blog/will-ai-replace-human-hr-2/</t>
-  </si>
-  <si>
-    <t>Discover how exactly AI will replace the "human" in human resources. Read on to learn more about the insights and upcoming trends.</t>
-  </si>
-  <si>
     <t>https://fuelcycle.com/blog/what-is-unstructured-data/</t>
   </si>
   <si>
@@ -2374,12 +2350,6 @@
     <t>Listen to the podcast and discover how Game Show Network conducts agile research that can adapt to the new world of fast, hyper-personalized content creation.</t>
   </si>
   <si>
-    <t>https://fuelcycle.com/blog/dominos-leading-tech-company-2/</t>
-  </si>
-  <si>
-    <t>As shopping has mostly become an online experience, companies have developed sharper marking tools to improve the user experience. It has become clear that the product is no longer the core of the business. And customer data can only foresee needs if used creatively and strategically.</t>
-  </si>
-  <si>
     <t>https://fuelcycle.com/blog/introducing-fuel-cycles-new-vice-president-strategic-accounts/</t>
   </si>
   <si>
@@ -2500,12 +2470,6 @@
     <t>Explore how honest Amazon reviews guarantee your business integrity in the era of "fake news", even if the temptation is high for businesses to use them.</t>
   </si>
   <si>
-    <t>https://fuelcycle.com/blog/fuel-cycles-2017-star-players-2/</t>
-  </si>
-  <si>
-    <t>Get to know Fuel Cycle's star players who have contributed greatly to the business, living the Fuel Cycle lifestyle of compassion, dedication, and customer-centricity.</t>
-  </si>
-  <si>
     <t>https://fuelcycle.com/blog/inclusive-technology-accessibility-user-experience/</t>
   </si>
   <si>
@@ -2629,12 +2593,6 @@
     <t>Explore creative ways to boost customer experience and utilize technologies to give your customers the journey they want while optimizing ad spend.</t>
   </si>
   <si>
-    <t>https://fuelcycle.com/blog/announcing-fuel-cycles-newest-sales-director-2/</t>
-  </si>
-  <si>
-    <t>Get to know Fuel Cycle's newest sales director, Gene Filipi, who brings with him 24 years of experience in market research.</t>
-  </si>
-  <si>
     <t>https://fuelcycle.com/blog/understanding-blockchain-technology/</t>
   </si>
   <si>
@@ -2735,12 +2693,6 @@
   </si>
   <si>
     <t>Learn how physical stores can exponentially increase sales, as well as online stores can raise awareness of online brands to less digitized communities.</t>
-  </si>
-  <si>
-    <t>https://fuelcycle.com/blog/zara-leading-tomorrows-fashion-2/</t>
-  </si>
-  <si>
-    <t>Zara is transforming the way you shop. From a simple shopping afternoon, Zara wants its clients to live a whole new experience. Zara is relying on a new “4Es” that many labels might have to follow to succeed in tomorrow’s market. From social media, to a more self-expressing education, millennials love experience.</t>
   </si>
   <si>
     <t>https://fuelcycle.com/blog/introducing-fastfocus-to-the-fuel-cycle-exchange/</t>
@@ -2770,7 +2722,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2797,12 +2749,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -3117,18 +3067,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD394"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="119.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="239.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="256" width="9.140625" style="1"/>
+    <col min="2" max="2" width="119.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="239.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="161.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -3399,7 +3347,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>11853</v>
+        <v>27404</v>
       </c>
       <c r="B20" t="s">
         <v>38</v>
@@ -3413,7 +3361,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>27404</v>
+        <v>24210</v>
       </c>
       <c r="B21" t="s">
         <v>40</v>
@@ -3427,7 +3375,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>24210</v>
+        <v>9423</v>
       </c>
       <c r="B22" t="s">
         <v>42</v>
@@ -3441,7 +3389,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>9423</v>
+        <v>8872</v>
       </c>
       <c r="B23" t="s">
         <v>44</v>
@@ -3455,7 +3403,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>8872</v>
+        <v>8420</v>
       </c>
       <c r="B24" t="s">
         <v>46</v>
@@ -3469,7 +3417,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>8420</v>
+        <v>27399</v>
       </c>
       <c r="B25" t="s">
         <v>48</v>
@@ -3483,7 +3431,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>27399</v>
+        <v>9045</v>
       </c>
       <c r="B26" t="s">
         <v>50</v>
@@ -3497,7 +3445,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>9045</v>
+        <v>26530</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
@@ -3511,7 +3459,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>26530</v>
+        <v>26219</v>
       </c>
       <c r="B28" t="s">
         <v>54</v>
@@ -3525,7 +3473,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>26219</v>
+        <v>26300</v>
       </c>
       <c r="B29" t="s">
         <v>56</v>
@@ -3539,7 +3487,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>26300</v>
+        <v>27405</v>
       </c>
       <c r="B30" t="s">
         <v>58</v>
@@ -3553,7 +3501,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>27405</v>
+        <v>27406</v>
       </c>
       <c r="B31" t="s">
         <v>60</v>
@@ -3567,7 +3515,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>27406</v>
+        <v>3936</v>
       </c>
       <c r="B32" t="s">
         <v>62</v>
@@ -3581,7 +3529,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>3936</v>
+        <v>25769</v>
       </c>
       <c r="B33" t="s">
         <v>64</v>
@@ -3595,7 +3543,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>25769</v>
+        <v>22675</v>
       </c>
       <c r="B34" t="s">
         <v>66</v>
@@ -3609,7 +3557,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>22675</v>
+        <v>22403</v>
       </c>
       <c r="B35" t="s">
         <v>68</v>
@@ -3623,7 +3571,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>22403</v>
+        <v>9324</v>
       </c>
       <c r="B36" t="s">
         <v>70</v>
@@ -3637,7 +3585,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>9324</v>
+        <v>23851</v>
       </c>
       <c r="B37" t="s">
         <v>72</v>
@@ -3651,7 +3599,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>23851</v>
+        <v>22237</v>
       </c>
       <c r="B38" t="s">
         <v>74</v>
@@ -3665,41 +3613,41 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>22237</v>
+        <v>27215</v>
       </c>
       <c r="B39" t="s">
         <v>76</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>77</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>27215</v>
+        <v>8670</v>
       </c>
       <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" t="s">
         <v>78</v>
       </c>
-      <c r="C40" t="s">
-        <v>1</v>
-      </c>
       <c r="D40" t="s">
-        <v>1</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>8670</v>
+        <v>24253</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D41" t="s">
         <v>81</v>
@@ -3707,7 +3655,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>24253</v>
+        <v>23613</v>
       </c>
       <c r="B42" t="s">
         <v>82</v>
@@ -3721,7 +3669,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>23613</v>
+        <v>27412</v>
       </c>
       <c r="B43" t="s">
         <v>84</v>
@@ -3735,7 +3683,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>27412</v>
+        <v>23959</v>
       </c>
       <c r="B44" t="s">
         <v>86</v>
@@ -3749,7 +3697,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>23959</v>
+        <v>24002</v>
       </c>
       <c r="B45" t="s">
         <v>88</v>
@@ -3763,7 +3711,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>24002</v>
+        <v>26061</v>
       </c>
       <c r="B46" t="s">
         <v>90</v>
@@ -3777,7 +3725,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>26061</v>
+        <v>8287</v>
       </c>
       <c r="B47" t="s">
         <v>92</v>
@@ -3791,7 +3739,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>8287</v>
+        <v>9320</v>
       </c>
       <c r="B48" t="s">
         <v>94</v>
@@ -3805,7 +3753,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>9320</v>
+        <v>25690</v>
       </c>
       <c r="B49" t="s">
         <v>96</v>
@@ -3819,7 +3767,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>25690</v>
+        <v>24096</v>
       </c>
       <c r="B50" t="s">
         <v>98</v>
@@ -3833,7 +3781,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>24096</v>
+        <v>26362</v>
       </c>
       <c r="B51" t="s">
         <v>100</v>
@@ -3847,7 +3795,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>26362</v>
+        <v>23949</v>
       </c>
       <c r="B52" t="s">
         <v>102</v>
@@ -3861,7 +3809,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>23949</v>
+        <v>24015</v>
       </c>
       <c r="B53" t="s">
         <v>104</v>
@@ -3875,7 +3823,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>24015</v>
+        <v>27411</v>
       </c>
       <c r="B54" t="s">
         <v>106</v>
@@ -3889,7 +3837,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>27411</v>
+        <v>25521</v>
       </c>
       <c r="B55" t="s">
         <v>108</v>
@@ -3903,7 +3851,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>25521</v>
+        <v>23571</v>
       </c>
       <c r="B56" t="s">
         <v>110</v>
@@ -3917,7 +3865,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>23571</v>
+        <v>23543</v>
       </c>
       <c r="B57" t="s">
         <v>112</v>
@@ -3931,7 +3879,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>23543</v>
+        <v>25629</v>
       </c>
       <c r="B58" t="s">
         <v>114</v>
@@ -3945,7 +3893,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>25629</v>
+        <v>17999</v>
       </c>
       <c r="B59" t="s">
         <v>116</v>
@@ -3959,7 +3907,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>17999</v>
+        <v>26198</v>
       </c>
       <c r="B60" t="s">
         <v>118</v>
@@ -3973,7 +3921,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>26198</v>
+        <v>25792</v>
       </c>
       <c r="B61" t="s">
         <v>120</v>
@@ -3987,7 +3935,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>25792</v>
+        <v>25400</v>
       </c>
       <c r="B62" t="s">
         <v>122</v>
@@ -4001,7 +3949,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>25400</v>
+        <v>24502</v>
       </c>
       <c r="B63" t="s">
         <v>124</v>
@@ -4015,7 +3963,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>24502</v>
+        <v>5028</v>
       </c>
       <c r="B64" t="s">
         <v>126</v>
@@ -4029,7 +3977,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>5028</v>
+        <v>26363</v>
       </c>
       <c r="B65" t="s">
         <v>128</v>
@@ -4043,7 +3991,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>26363</v>
+        <v>24099</v>
       </c>
       <c r="B66" t="s">
         <v>130</v>
@@ -4057,7 +4005,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>24099</v>
+        <v>24615</v>
       </c>
       <c r="B67" t="s">
         <v>132</v>
@@ -4071,7 +4019,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>24615</v>
+        <v>23838</v>
       </c>
       <c r="B68" t="s">
         <v>134</v>
@@ -4085,7 +4033,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>23838</v>
+        <v>24622</v>
       </c>
       <c r="B69" t="s">
         <v>136</v>
@@ -4099,7 +4047,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>24622</v>
+        <v>3938</v>
       </c>
       <c r="B70" t="s">
         <v>138</v>
@@ -4113,7 +4061,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>3938</v>
+        <v>25130</v>
       </c>
       <c r="B71" t="s">
         <v>140</v>
@@ -4127,7 +4075,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>25130</v>
+        <v>26141</v>
       </c>
       <c r="B72" t="s">
         <v>142</v>
@@ -4141,7 +4089,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>26141</v>
+        <v>25395</v>
       </c>
       <c r="B73" t="s">
         <v>144</v>
@@ -4155,7 +4103,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>25395</v>
+        <v>23617</v>
       </c>
       <c r="B74" t="s">
         <v>146</v>
@@ -4169,7 +4117,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>23617</v>
+        <v>25664</v>
       </c>
       <c r="B75" t="s">
         <v>148</v>
@@ -4183,7 +4131,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>25664</v>
+        <v>23426</v>
       </c>
       <c r="B76" t="s">
         <v>150</v>
@@ -4197,7 +4145,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>23426</v>
+        <v>23952</v>
       </c>
       <c r="B77" t="s">
         <v>152</v>
@@ -4211,7 +4159,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>23952</v>
+        <v>24334</v>
       </c>
       <c r="B78" t="s">
         <v>154</v>
@@ -4225,7 +4173,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>24334</v>
+        <v>24179</v>
       </c>
       <c r="B79" t="s">
         <v>156</v>
@@ -4239,7 +4187,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>24179</v>
+        <v>2198</v>
       </c>
       <c r="B80" t="s">
         <v>158</v>
@@ -4253,7 +4201,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>2198</v>
+        <v>23999</v>
       </c>
       <c r="B81" t="s">
         <v>160</v>
@@ -4267,7 +4215,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>23999</v>
+        <v>27410</v>
       </c>
       <c r="B82" t="s">
         <v>162</v>
@@ -4281,7 +4229,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>27410</v>
+        <v>27415</v>
       </c>
       <c r="B83" t="s">
         <v>164</v>
@@ -4295,7 +4243,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>27415</v>
+        <v>23660</v>
       </c>
       <c r="B84" t="s">
         <v>166</v>
@@ -4309,7 +4257,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>23660</v>
+        <v>26177</v>
       </c>
       <c r="B85" t="s">
         <v>168</v>
@@ -4323,7 +4271,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>26177</v>
+        <v>23548</v>
       </c>
       <c r="B86" t="s">
         <v>170</v>
@@ -4337,7 +4285,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>23548</v>
+        <v>9380</v>
       </c>
       <c r="B87" t="s">
         <v>172</v>
@@ -4351,7 +4299,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>9380</v>
+        <v>22350</v>
       </c>
       <c r="B88" t="s">
         <v>174</v>
@@ -4365,7 +4313,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>22350</v>
+        <v>24874</v>
       </c>
       <c r="B89" t="s">
         <v>176</v>
@@ -4379,7 +4327,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>24874</v>
+        <v>23049</v>
       </c>
       <c r="B90" t="s">
         <v>178</v>
@@ -4393,7 +4341,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>23049</v>
+        <v>24871</v>
       </c>
       <c r="B91" t="s">
         <v>180</v>
@@ -4407,7 +4355,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>24871</v>
+        <v>26266</v>
       </c>
       <c r="B92" t="s">
         <v>182</v>
@@ -4421,7 +4369,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>26266</v>
+        <v>22886</v>
       </c>
       <c r="B93" t="s">
         <v>184</v>
@@ -4435,7 +4383,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>22886</v>
+        <v>23665</v>
       </c>
       <c r="B94" t="s">
         <v>186</v>
@@ -4449,7 +4397,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>23665</v>
+        <v>25122</v>
       </c>
       <c r="B95" t="s">
         <v>188</v>
@@ -4463,7 +4411,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>25122</v>
+        <v>24256</v>
       </c>
       <c r="B96" t="s">
         <v>190</v>
@@ -4477,7 +4425,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>24256</v>
+        <v>23862</v>
       </c>
       <c r="B97" t="s">
         <v>192</v>
@@ -4491,7 +4439,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>23862</v>
+        <v>26193</v>
       </c>
       <c r="B98" t="s">
         <v>194</v>
@@ -4505,7 +4453,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>26193</v>
+        <v>25113</v>
       </c>
       <c r="B99" t="s">
         <v>196</v>
@@ -4519,7 +4467,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>25113</v>
+        <v>8907</v>
       </c>
       <c r="B100" t="s">
         <v>198</v>
@@ -4533,7 +4481,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>8907</v>
+        <v>24070</v>
       </c>
       <c r="B101" t="s">
         <v>200</v>
@@ -4547,7 +4495,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>24070</v>
+        <v>24492</v>
       </c>
       <c r="B102" t="s">
         <v>202</v>
@@ -4561,7 +4509,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>24492</v>
+        <v>5018</v>
       </c>
       <c r="B103" t="s">
         <v>204</v>
@@ -4575,7 +4523,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>5018</v>
+        <v>25603</v>
       </c>
       <c r="B104" t="s">
         <v>206</v>
@@ -4589,7 +4537,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>25603</v>
+        <v>26049</v>
       </c>
       <c r="B105" t="s">
         <v>208</v>
@@ -4603,7 +4551,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>26049</v>
+        <v>23484</v>
       </c>
       <c r="B106" t="s">
         <v>210</v>
@@ -4617,7 +4565,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>23484</v>
+        <v>23470</v>
       </c>
       <c r="B107" t="s">
         <v>212</v>
@@ -4631,7 +4579,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>23470</v>
+        <v>24062</v>
       </c>
       <c r="B108" t="s">
         <v>214</v>
@@ -4645,7 +4593,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>24062</v>
+        <v>9505</v>
       </c>
       <c r="B109" t="s">
         <v>216</v>
@@ -4659,7 +4607,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>9505</v>
+        <v>26052</v>
       </c>
       <c r="B110" t="s">
         <v>218</v>
@@ -4673,7 +4621,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>26052</v>
+        <v>8430</v>
       </c>
       <c r="B111" t="s">
         <v>220</v>
@@ -4687,7 +4635,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>8430</v>
+        <v>24892</v>
       </c>
       <c r="B112" t="s">
         <v>222</v>
@@ -4701,7 +4649,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>24892</v>
+        <v>27413</v>
       </c>
       <c r="B113" t="s">
         <v>224</v>
@@ -4715,7 +4663,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>27413</v>
+        <v>3920</v>
       </c>
       <c r="B114" t="s">
         <v>226</v>
@@ -4729,7 +4677,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>3920</v>
+        <v>24272</v>
       </c>
       <c r="B115" t="s">
         <v>228</v>
@@ -4743,7 +4691,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>24272</v>
+        <v>23859</v>
       </c>
       <c r="B116" t="s">
         <v>230</v>
@@ -4757,7 +4705,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>23859</v>
+        <v>23855</v>
       </c>
       <c r="B117" t="s">
         <v>232</v>
@@ -4771,7 +4719,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>23855</v>
+        <v>22501</v>
       </c>
       <c r="B118" t="s">
         <v>234</v>
@@ -4785,7 +4733,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>22501</v>
+        <v>2879</v>
       </c>
       <c r="B119" t="s">
         <v>236</v>
@@ -4799,7 +4747,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>2879</v>
+        <v>23415</v>
       </c>
       <c r="B120" t="s">
         <v>238</v>
@@ -4813,7 +4761,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>23415</v>
+        <v>23961</v>
       </c>
       <c r="B121" t="s">
         <v>240</v>
@@ -4827,7 +4775,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>23961</v>
+        <v>25422</v>
       </c>
       <c r="B122" t="s">
         <v>242</v>
@@ -4841,7 +4789,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>25422</v>
+        <v>8608</v>
       </c>
       <c r="B123" t="s">
         <v>244</v>
@@ -4855,7 +4803,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>8608</v>
+        <v>22945</v>
       </c>
       <c r="B124" t="s">
         <v>246</v>
@@ -4869,35 +4817,35 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>22945</v>
+        <v>27428</v>
       </c>
       <c r="B125" t="s">
         <v>248</v>
       </c>
       <c r="C125" t="s">
-        <v>249</v>
+        <v>21</v>
       </c>
       <c r="D125" t="s">
-        <v>249</v>
+        <v>21</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>27428</v>
+        <v>24242</v>
       </c>
       <c r="B126" t="s">
+        <v>249</v>
+      </c>
+      <c r="C126" t="s">
         <v>250</v>
       </c>
-      <c r="C126" t="s">
-        <v>21</v>
-      </c>
       <c r="D126" t="s">
-        <v>21</v>
+        <v>250</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>24242</v>
+        <v>2845</v>
       </c>
       <c r="B127" t="s">
         <v>251</v>
@@ -4911,7 +4859,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>2845</v>
+        <v>26028</v>
       </c>
       <c r="B128" t="s">
         <v>253</v>
@@ -4925,7 +4873,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>26028</v>
+        <v>9656</v>
       </c>
       <c r="B129" t="s">
         <v>255</v>
@@ -4939,7 +4887,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>9656</v>
+        <v>23347</v>
       </c>
       <c r="B130" t="s">
         <v>257</v>
@@ -4953,7 +4901,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>23347</v>
+        <v>20346</v>
       </c>
       <c r="B131" t="s">
         <v>259</v>
@@ -4967,7 +4915,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>20346</v>
+        <v>7597</v>
       </c>
       <c r="B132" t="s">
         <v>261</v>
@@ -4981,7 +4929,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>7597</v>
+        <v>2260</v>
       </c>
       <c r="B133" t="s">
         <v>263</v>
@@ -4995,7 +4943,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>2260</v>
+        <v>9639</v>
       </c>
       <c r="B134" t="s">
         <v>265</v>
@@ -5009,7 +4957,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>9639</v>
+        <v>8541</v>
       </c>
       <c r="B135" t="s">
         <v>267</v>
@@ -5023,7 +4971,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>8541</v>
+        <v>20999</v>
       </c>
       <c r="B136" t="s">
         <v>269</v>
@@ -5037,7 +4985,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>20999</v>
+        <v>20853</v>
       </c>
       <c r="B137" t="s">
         <v>271</v>
@@ -5051,7 +4999,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>20853</v>
+        <v>3940</v>
       </c>
       <c r="B138" t="s">
         <v>273</v>
@@ -5065,7 +5013,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>3940</v>
+        <v>20624</v>
       </c>
       <c r="B139" t="s">
         <v>275</v>
@@ -5079,7 +5027,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>20624</v>
+        <v>3918</v>
       </c>
       <c r="B140" t="s">
         <v>277</v>
@@ -5093,7 +5041,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>3918</v>
+        <v>3925</v>
       </c>
       <c r="B141" t="s">
         <v>279</v>
@@ -5107,7 +5055,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>3925</v>
+        <v>23210</v>
       </c>
       <c r="B142" t="s">
         <v>281</v>
@@ -5121,7 +5069,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>23210</v>
+        <v>18663</v>
       </c>
       <c r="B143" t="s">
         <v>283</v>
@@ -5135,7 +5083,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>18663</v>
+        <v>2265</v>
       </c>
       <c r="B144" t="s">
         <v>285</v>
@@ -5149,7 +5097,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>2265</v>
+        <v>20242</v>
       </c>
       <c r="B145" t="s">
         <v>287</v>
@@ -5163,7 +5111,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>20242</v>
+        <v>8440</v>
       </c>
       <c r="B146" t="s">
         <v>289</v>
@@ -5172,59 +5120,56 @@
         <v>290</v>
       </c>
       <c r="D146" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>8440</v>
+        <v>22846</v>
       </c>
       <c r="B147" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C147" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D147" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>22846</v>
+        <v>19405</v>
       </c>
       <c r="B148" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C148" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D148" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>19405</v>
+        <v>23226</v>
       </c>
       <c r="B149" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C149" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D149" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>23226</v>
+        <v>2221</v>
       </c>
       <c r="B150" t="s">
-        <v>300</v>
-      </c>
-      <c r="C150" t="s">
         <v>301</v>
       </c>
       <c r="D150" t="s">
@@ -5233,23 +5178,23 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>2221</v>
+        <v>19466</v>
       </c>
       <c r="B151" t="s">
         <v>303</v>
       </c>
+      <c r="C151" t="s">
+        <v>304</v>
+      </c>
       <c r="D151" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>19466</v>
+        <v>2211</v>
       </c>
       <c r="B152" t="s">
-        <v>305</v>
-      </c>
-      <c r="C152" t="s">
         <v>306</v>
       </c>
       <c r="D152" t="s">
@@ -5258,65 +5203,65 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>2211</v>
+        <v>19283</v>
       </c>
       <c r="B153" t="s">
         <v>308</v>
       </c>
+      <c r="C153" t="s">
+        <v>309</v>
+      </c>
       <c r="D153" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>19283</v>
+        <v>19981</v>
       </c>
       <c r="B154" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C154" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D154" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>19981</v>
+        <v>19787</v>
       </c>
       <c r="B155" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C155" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D155" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>19787</v>
+        <v>23369</v>
       </c>
       <c r="B156" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C156" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D156" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>23369</v>
+        <v>2895</v>
       </c>
       <c r="B157" t="s">
-        <v>319</v>
-      </c>
-      <c r="C157" t="s">
         <v>320</v>
       </c>
       <c r="D157" t="s">
@@ -5325,23 +5270,23 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>2895</v>
+        <v>19862</v>
       </c>
       <c r="B158" t="s">
         <v>322</v>
       </c>
+      <c r="C158" t="s">
+        <v>323</v>
+      </c>
       <c r="D158" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>19862</v>
+        <v>9033</v>
       </c>
       <c r="B159" t="s">
-        <v>324</v>
-      </c>
-      <c r="C159" t="s">
         <v>325</v>
       </c>
       <c r="D159" t="s">
@@ -5350,7 +5295,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>9033</v>
+        <v>9508</v>
       </c>
       <c r="B160" t="s">
         <v>327</v>
@@ -5361,51 +5306,51 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>9508</v>
+        <v>9706</v>
       </c>
       <c r="B161" t="s">
         <v>329</v>
       </c>
+      <c r="C161" t="s">
+        <v>330</v>
+      </c>
       <c r="D161" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>9706</v>
+        <v>22734</v>
       </c>
       <c r="B162" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C162" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D162" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>22734</v>
+        <v>23261</v>
       </c>
       <c r="B163" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C163" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D163" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>23261</v>
+        <v>4629</v>
       </c>
       <c r="B164" t="s">
-        <v>337</v>
-      </c>
-      <c r="C164" t="s">
         <v>338</v>
       </c>
       <c r="D164" t="s">
@@ -5414,37 +5359,37 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>4629</v>
+        <v>20094</v>
       </c>
       <c r="B165" t="s">
         <v>340</v>
       </c>
+      <c r="C165" t="s">
+        <v>341</v>
+      </c>
       <c r="D165" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>20094</v>
+        <v>18452</v>
       </c>
       <c r="B166" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C166" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D166" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>18452</v>
+        <v>2229</v>
       </c>
       <c r="B167" t="s">
-        <v>345</v>
-      </c>
-      <c r="C167" t="s">
         <v>346</v>
       </c>
       <c r="D167" t="s">
@@ -5453,261 +5398,261 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>2229</v>
+        <v>23173</v>
       </c>
       <c r="B168" t="s">
         <v>348</v>
       </c>
+      <c r="C168" t="s">
+        <v>349</v>
+      </c>
       <c r="D168" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>23173</v>
+        <v>19934</v>
       </c>
       <c r="B169" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C169" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D169" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>19934</v>
+        <v>23095</v>
       </c>
       <c r="B170" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C170" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D170" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>23095</v>
+        <v>9781</v>
       </c>
       <c r="B171" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C171" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D171" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>9781</v>
+        <v>19356</v>
       </c>
       <c r="B172" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C172" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D172" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>19356</v>
+        <v>11759</v>
       </c>
       <c r="B173" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C173" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D173" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>11759</v>
+        <v>8925</v>
       </c>
       <c r="B174" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C174" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D174" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>8925</v>
+        <v>8185</v>
       </c>
       <c r="B175" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C175" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D175" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>8185</v>
+        <v>21403</v>
       </c>
       <c r="B176" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C176" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D176" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>21403</v>
+        <v>19403</v>
       </c>
       <c r="B177" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C177" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D177" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>19403</v>
+        <v>21097</v>
       </c>
       <c r="B178" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C178" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D178" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>21097</v>
+        <v>4610</v>
       </c>
       <c r="B179" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C179" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D179" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>4610</v>
+        <v>21169</v>
       </c>
       <c r="B180" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C180" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D180" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>21169</v>
+        <v>23010</v>
       </c>
       <c r="B181" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C181" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D181" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>23010</v>
+        <v>21378</v>
       </c>
       <c r="B182" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C182" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D182" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>21378</v>
+        <v>9415</v>
       </c>
       <c r="B183" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C183" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D183" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>9415</v>
+        <v>3885</v>
       </c>
       <c r="B184" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C184" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D184" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>3885</v>
+        <v>19091</v>
       </c>
       <c r="B185" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C185" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D185" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>19091</v>
+        <v>4999</v>
       </c>
       <c r="B186" t="s">
-        <v>401</v>
-      </c>
-      <c r="C186" t="s">
         <v>402</v>
       </c>
       <c r="D186" t="s">
@@ -5716,7 +5661,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>4999</v>
+        <v>9642</v>
       </c>
       <c r="B187" t="s">
         <v>404</v>
@@ -5727,23 +5672,23 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>9642</v>
+        <v>23077</v>
       </c>
       <c r="B188" t="s">
         <v>406</v>
       </c>
+      <c r="C188" t="s">
+        <v>407</v>
+      </c>
       <c r="D188" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>23077</v>
+        <v>5484</v>
       </c>
       <c r="B189" t="s">
-        <v>408</v>
-      </c>
-      <c r="C189" t="s">
         <v>409</v>
       </c>
       <c r="D189" t="s">
@@ -5752,7 +5697,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>5484</v>
+        <v>3942</v>
       </c>
       <c r="B190" t="s">
         <v>411</v>
@@ -5763,7 +5708,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>3942</v>
+        <v>2604</v>
       </c>
       <c r="B191" t="s">
         <v>413</v>
@@ -5774,23 +5719,23 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>2604</v>
+        <v>21407</v>
       </c>
       <c r="B192" t="s">
         <v>415</v>
       </c>
+      <c r="C192" t="s">
+        <v>416</v>
+      </c>
       <c r="D192" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>21407</v>
+        <v>7619</v>
       </c>
       <c r="B193" t="s">
-        <v>417</v>
-      </c>
-      <c r="C193" t="s">
         <v>418</v>
       </c>
       <c r="D193" t="s">
@@ -5799,23 +5744,23 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>7619</v>
+        <v>3887</v>
       </c>
       <c r="B194" t="s">
         <v>420</v>
       </c>
+      <c r="C194" t="s">
+        <v>421</v>
+      </c>
       <c r="D194" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>3887</v>
+        <v>8935</v>
       </c>
       <c r="B195" t="s">
-        <v>422</v>
-      </c>
-      <c r="C195" t="s">
         <v>423</v>
       </c>
       <c r="D195" t="s">
@@ -5824,7 +5769,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>8935</v>
+        <v>2696</v>
       </c>
       <c r="B196" t="s">
         <v>425</v>
@@ -5835,7 +5780,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>2696</v>
+        <v>2513</v>
       </c>
       <c r="B197" t="s">
         <v>427</v>
@@ -5846,37 +5791,37 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>2513</v>
+        <v>6580</v>
       </c>
       <c r="B198" t="s">
         <v>429</v>
       </c>
+      <c r="C198" t="s">
+        <v>430</v>
+      </c>
       <c r="D198" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>6580</v>
+        <v>9579</v>
       </c>
       <c r="B199" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C199" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D199" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>9579</v>
+        <v>2416</v>
       </c>
       <c r="B200" t="s">
-        <v>434</v>
-      </c>
-      <c r="C200" t="s">
         <v>435</v>
       </c>
       <c r="D200" t="s">
@@ -5885,65 +5830,65 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>2416</v>
+        <v>17853</v>
       </c>
       <c r="B201" t="s">
         <v>437</v>
       </c>
+      <c r="C201" t="s">
+        <v>438</v>
+      </c>
       <c r="D201" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>17853</v>
+        <v>8062</v>
       </c>
       <c r="B202" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C202" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D202" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>8062</v>
+        <v>14996</v>
       </c>
       <c r="B203" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C203" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D203" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>14996</v>
+        <v>18566</v>
       </c>
       <c r="B204" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C204" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D204" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>18566</v>
+        <v>2296</v>
       </c>
       <c r="B205" t="s">
-        <v>448</v>
-      </c>
-      <c r="C205" t="s">
         <v>449</v>
       </c>
       <c r="D205" t="s">
@@ -5952,7 +5897,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>2296</v>
+        <v>2669</v>
       </c>
       <c r="B206" t="s">
         <v>451</v>
@@ -5963,23 +5908,23 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>2669</v>
+        <v>20423</v>
       </c>
       <c r="B207" t="s">
         <v>453</v>
       </c>
+      <c r="C207" t="s">
+        <v>454</v>
+      </c>
       <c r="D207" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>20423</v>
+        <v>2729</v>
       </c>
       <c r="B208" t="s">
-        <v>455</v>
-      </c>
-      <c r="C208" t="s">
         <v>456</v>
       </c>
       <c r="D208" t="s">
@@ -5988,37 +5933,37 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>2729</v>
+        <v>6603</v>
       </c>
       <c r="B209" t="s">
         <v>458</v>
       </c>
+      <c r="C209" t="s">
+        <v>459</v>
+      </c>
       <c r="D209" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>6603</v>
+        <v>9014</v>
       </c>
       <c r="B210" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C210" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D210" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>9014</v>
+        <v>9790</v>
       </c>
       <c r="B211" t="s">
-        <v>463</v>
-      </c>
-      <c r="C211" t="s">
         <v>464</v>
       </c>
       <c r="D211" t="s">
@@ -6027,7 +5972,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>9790</v>
+        <v>4316</v>
       </c>
       <c r="B212" t="s">
         <v>466</v>
@@ -6038,23 +5983,23 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>4316</v>
+        <v>22741</v>
       </c>
       <c r="B213" t="s">
         <v>468</v>
       </c>
+      <c r="C213" t="s">
+        <v>469</v>
+      </c>
       <c r="D213" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>22741</v>
+        <v>11852</v>
       </c>
       <c r="B214" t="s">
-        <v>470</v>
-      </c>
-      <c r="C214" t="s">
         <v>471</v>
       </c>
       <c r="D214" t="s">
@@ -6063,7 +6008,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>11852</v>
+        <v>2311</v>
       </c>
       <c r="B215" t="s">
         <v>473</v>
@@ -6074,37 +6019,37 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>2311</v>
+        <v>20502</v>
       </c>
       <c r="B216" t="s">
         <v>475</v>
       </c>
+      <c r="C216" t="s">
+        <v>476</v>
+      </c>
       <c r="D216" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>20502</v>
+        <v>9975</v>
       </c>
       <c r="B217" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C217" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D217" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>9975</v>
+        <v>2625</v>
       </c>
       <c r="B218" t="s">
-        <v>480</v>
-      </c>
-      <c r="C218" t="s">
         <v>481</v>
       </c>
       <c r="D218" t="s">
@@ -6113,51 +6058,51 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>2625</v>
+        <v>10510</v>
       </c>
       <c r="B219" t="s">
         <v>483</v>
       </c>
+      <c r="C219" t="s">
+        <v>484</v>
+      </c>
       <c r="D219" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>10510</v>
+        <v>22730</v>
       </c>
       <c r="B220" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C220" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D220" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>22730</v>
+        <v>9796</v>
       </c>
       <c r="B221" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C221" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D221" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>9796</v>
+        <v>10125</v>
       </c>
       <c r="B222" t="s">
-        <v>491</v>
-      </c>
-      <c r="C222" t="s">
         <v>492</v>
       </c>
       <c r="D222" t="s">
@@ -6166,23 +6111,23 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>10125</v>
+        <v>4652</v>
       </c>
       <c r="B223" t="s">
         <v>494</v>
       </c>
+      <c r="C223" t="s">
+        <v>495</v>
+      </c>
       <c r="D223" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>4652</v>
+        <v>2631</v>
       </c>
       <c r="B224" t="s">
-        <v>496</v>
-      </c>
-      <c r="C224" t="s">
         <v>497</v>
       </c>
       <c r="D224" t="s">
@@ -6191,23 +6136,23 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>2631</v>
+        <v>9659</v>
       </c>
       <c r="B225" t="s">
         <v>499</v>
       </c>
+      <c r="C225" t="s">
+        <v>500</v>
+      </c>
       <c r="D225" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>9659</v>
+        <v>2484</v>
       </c>
       <c r="B226" t="s">
-        <v>501</v>
-      </c>
-      <c r="C226" t="s">
         <v>502</v>
       </c>
       <c r="D226" t="s">
@@ -6216,23 +6161,23 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>2484</v>
+        <v>23309</v>
       </c>
       <c r="B227" t="s">
         <v>504</v>
       </c>
+      <c r="C227" t="s">
+        <v>505</v>
+      </c>
       <c r="D227" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>23309</v>
+        <v>5055</v>
       </c>
       <c r="B228" t="s">
-        <v>506</v>
-      </c>
-      <c r="C228" t="s">
         <v>507</v>
       </c>
       <c r="D228" t="s">
@@ -6241,23 +6186,23 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>5055</v>
+        <v>22817</v>
       </c>
       <c r="B229" t="s">
         <v>509</v>
       </c>
+      <c r="C229" t="s">
+        <v>510</v>
+      </c>
       <c r="D229" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>22817</v>
+        <v>2763</v>
       </c>
       <c r="B230" t="s">
-        <v>511</v>
-      </c>
-      <c r="C230" t="s">
         <v>512</v>
       </c>
       <c r="D230" t="s">
@@ -6266,23 +6211,23 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>2763</v>
+        <v>9672</v>
       </c>
       <c r="B231" t="s">
         <v>514</v>
       </c>
+      <c r="C231" t="s">
+        <v>515</v>
+      </c>
       <c r="D231" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>9672</v>
+        <v>4989</v>
       </c>
       <c r="B232" t="s">
-        <v>516</v>
-      </c>
-      <c r="C232" t="s">
         <v>517</v>
       </c>
       <c r="D232" t="s">
@@ -6291,7 +6236,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>4989</v>
+        <v>9507</v>
       </c>
       <c r="B233" t="s">
         <v>519</v>
@@ -6302,7 +6247,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>9507</v>
+        <v>2449</v>
       </c>
       <c r="B234" t="s">
         <v>521</v>
@@ -6313,23 +6258,23 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>2449</v>
+        <v>18984</v>
       </c>
       <c r="B235" t="s">
         <v>523</v>
       </c>
+      <c r="C235" t="s">
+        <v>524</v>
+      </c>
       <c r="D235" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>18984</v>
+        <v>8445</v>
       </c>
       <c r="B236" t="s">
-        <v>525</v>
-      </c>
-      <c r="C236" t="s">
         <v>526</v>
       </c>
       <c r="D236" t="s">
@@ -6338,51 +6283,51 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>8445</v>
+        <v>9745</v>
       </c>
       <c r="B237" t="s">
         <v>528</v>
       </c>
+      <c r="C237" t="s">
+        <v>529</v>
+      </c>
       <c r="D237" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>9745</v>
+        <v>9696</v>
       </c>
       <c r="B238" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C238" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D238" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>9696</v>
+        <v>23207</v>
       </c>
       <c r="B239" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C239" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D239" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>23207</v>
+        <v>6896</v>
       </c>
       <c r="B240" t="s">
-        <v>536</v>
-      </c>
-      <c r="C240" t="s">
         <v>537</v>
       </c>
       <c r="D240" t="s">
@@ -6391,23 +6336,23 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>6896</v>
+        <v>19736</v>
       </c>
       <c r="B241" t="s">
         <v>539</v>
       </c>
+      <c r="C241" t="s">
+        <v>540</v>
+      </c>
       <c r="D241" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>19736</v>
+        <v>3878</v>
       </c>
       <c r="B242" t="s">
-        <v>541</v>
-      </c>
-      <c r="C242" t="s">
         <v>542</v>
       </c>
       <c r="D242" t="s">
@@ -6416,37 +6361,37 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>3878</v>
+        <v>21315</v>
       </c>
       <c r="B243" t="s">
         <v>544</v>
       </c>
+      <c r="C243" t="s">
+        <v>545</v>
+      </c>
       <c r="D243" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>21315</v>
+        <v>17982</v>
       </c>
       <c r="B244" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C244" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D244" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>17982</v>
+        <v>4966</v>
       </c>
       <c r="B245" t="s">
-        <v>549</v>
-      </c>
-      <c r="C245" t="s">
         <v>550</v>
       </c>
       <c r="D245" t="s">
@@ -6455,23 +6400,23 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>4966</v>
+        <v>19358</v>
       </c>
       <c r="B246" t="s">
         <v>552</v>
       </c>
+      <c r="C246" t="s">
+        <v>553</v>
+      </c>
       <c r="D246" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>19358</v>
+        <v>2364</v>
       </c>
       <c r="B247" t="s">
-        <v>554</v>
-      </c>
-      <c r="C247" t="s">
         <v>555</v>
       </c>
       <c r="D247" t="s">
@@ -6480,7 +6425,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>2364</v>
+        <v>2560</v>
       </c>
       <c r="B248" t="s">
         <v>557</v>
@@ -6491,23 +6436,23 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>2560</v>
+        <v>10104</v>
       </c>
       <c r="B249" t="s">
         <v>559</v>
       </c>
+      <c r="C249" t="s">
+        <v>560</v>
+      </c>
       <c r="D249" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>10104</v>
+        <v>2527</v>
       </c>
       <c r="B250" t="s">
-        <v>561</v>
-      </c>
-      <c r="C250" t="s">
         <v>562</v>
       </c>
       <c r="D250" t="s">
@@ -6516,23 +6461,23 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>2527</v>
+        <v>18008</v>
       </c>
       <c r="B251" t="s">
         <v>564</v>
       </c>
+      <c r="C251" t="s">
+        <v>565</v>
+      </c>
       <c r="D251" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>18008</v>
+        <v>8474</v>
       </c>
       <c r="B252" t="s">
-        <v>566</v>
-      </c>
-      <c r="C252" t="s">
         <v>567</v>
       </c>
       <c r="D252" t="s">
@@ -6541,7 +6486,7 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>8474</v>
+        <v>2836</v>
       </c>
       <c r="B253" t="s">
         <v>569</v>
@@ -6552,7 +6497,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>2836</v>
+        <v>2322</v>
       </c>
       <c r="B254" t="s">
         <v>571</v>
@@ -6563,23 +6508,23 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>2322</v>
+        <v>9728</v>
       </c>
       <c r="B255" t="s">
         <v>573</v>
       </c>
+      <c r="C255" t="s">
+        <v>574</v>
+      </c>
       <c r="D255" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>9728</v>
+        <v>2718</v>
       </c>
       <c r="B256" t="s">
-        <v>575</v>
-      </c>
-      <c r="C256" t="s">
         <v>576</v>
       </c>
       <c r="D256" t="s">
@@ -6588,23 +6533,23 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>2718</v>
+        <v>22820</v>
       </c>
       <c r="B257" t="s">
         <v>578</v>
       </c>
+      <c r="C257" t="s">
+        <v>579</v>
+      </c>
       <c r="D257" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>22820</v>
+        <v>7278</v>
       </c>
       <c r="B258" t="s">
-        <v>580</v>
-      </c>
-      <c r="C258" t="s">
         <v>581</v>
       </c>
       <c r="D258" t="s">
@@ -6613,37 +6558,37 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>7278</v>
+        <v>19313</v>
       </c>
       <c r="B259" t="s">
         <v>583</v>
       </c>
+      <c r="C259" t="s">
+        <v>584</v>
+      </c>
       <c r="D259" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>19313</v>
+        <v>9787</v>
       </c>
       <c r="B260" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C260" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D260" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>9787</v>
+        <v>4605</v>
       </c>
       <c r="B261" t="s">
-        <v>588</v>
-      </c>
-      <c r="C261" t="s">
         <v>589</v>
       </c>
       <c r="D261" t="s">
@@ -6652,37 +6597,37 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>4605</v>
+        <v>20914</v>
       </c>
       <c r="B262" t="s">
         <v>591</v>
       </c>
+      <c r="C262" t="s">
+        <v>592</v>
+      </c>
       <c r="D262" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>20914</v>
+        <v>22793</v>
       </c>
       <c r="B263" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C263" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D263" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>22793</v>
+        <v>8151</v>
       </c>
       <c r="B264" t="s">
-        <v>596</v>
-      </c>
-      <c r="C264" t="s">
         <v>597</v>
       </c>
       <c r="D264" t="s">
@@ -6691,23 +6636,23 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>8151</v>
+        <v>20944</v>
       </c>
       <c r="B265" t="s">
         <v>599</v>
       </c>
+      <c r="C265" t="s">
+        <v>600</v>
+      </c>
       <c r="D265" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>20944</v>
+        <v>2735</v>
       </c>
       <c r="B266" t="s">
-        <v>601</v>
-      </c>
-      <c r="C266" t="s">
         <v>602</v>
       </c>
       <c r="D266" t="s">
@@ -6716,7 +6661,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>2735</v>
+        <v>5800</v>
       </c>
       <c r="B267" t="s">
         <v>604</v>
@@ -6727,51 +6672,51 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>5800</v>
+        <v>19471</v>
       </c>
       <c r="B268" t="s">
         <v>606</v>
       </c>
+      <c r="C268" t="s">
+        <v>607</v>
+      </c>
       <c r="D268" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>19471</v>
+        <v>17796</v>
       </c>
       <c r="B269" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C269" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D269" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>17796</v>
+        <v>10005</v>
       </c>
       <c r="B270" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C270" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D270" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>10005</v>
+        <v>2757</v>
       </c>
       <c r="B271" t="s">
-        <v>614</v>
-      </c>
-      <c r="C271" t="s">
         <v>615</v>
       </c>
       <c r="D271" t="s">
@@ -6780,98 +6725,98 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>11865</v>
+        <v>21644</v>
       </c>
       <c r="B272" t="s">
         <v>617</v>
       </c>
+      <c r="C272" t="s">
+        <v>618</v>
+      </c>
       <c r="D272" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>2757</v>
+        <v>2874</v>
       </c>
       <c r="B273" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D273" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>21644</v>
+        <v>4452</v>
       </c>
       <c r="B274" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C274" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D274" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>2874</v>
+        <v>4993</v>
       </c>
       <c r="B275" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D275" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>4452</v>
+        <v>4424</v>
       </c>
       <c r="B276" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C276" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D276" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>4993</v>
+        <v>19109</v>
       </c>
       <c r="B277" t="s">
-        <v>629</v>
+        <v>630</v>
+      </c>
+      <c r="C277" t="s">
+        <v>631</v>
       </c>
       <c r="D277" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>4424</v>
+        <v>2329</v>
       </c>
       <c r="B278" t="s">
-        <v>631</v>
-      </c>
-      <c r="C278" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D278" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>19109</v>
+        <v>2591</v>
       </c>
       <c r="B279" t="s">
-        <v>634</v>
-      </c>
-      <c r="C279" t="s">
         <v>635</v>
       </c>
       <c r="D279" t="s">
@@ -6880,7 +6825,7 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>2329</v>
+        <v>3916</v>
       </c>
       <c r="B280" t="s">
         <v>637</v>
@@ -6891,7 +6836,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>2591</v>
+        <v>2461</v>
       </c>
       <c r="B281" t="s">
         <v>639</v>
@@ -6902,7 +6847,7 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>3916</v>
+        <v>2406</v>
       </c>
       <c r="B282" t="s">
         <v>641</v>
@@ -6913,7 +6858,7 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>2461</v>
+        <v>3869</v>
       </c>
       <c r="B283" t="s">
         <v>643</v>
@@ -6924,112 +6869,112 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>2406</v>
+        <v>17892</v>
       </c>
       <c r="B284" t="s">
         <v>645</v>
       </c>
+      <c r="C284" t="s">
+        <v>646</v>
+      </c>
       <c r="D284" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>3869</v>
+        <v>21615</v>
       </c>
       <c r="B285" t="s">
-        <v>647</v>
+        <v>648</v>
+      </c>
+      <c r="C285" t="s">
+        <v>649</v>
       </c>
       <c r="D285" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>17892</v>
+        <v>19512</v>
       </c>
       <c r="B286" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C286" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="D286" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>21615</v>
+        <v>6894</v>
       </c>
       <c r="B287" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="C287" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="D287" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>11854</v>
+        <v>3889</v>
       </c>
       <c r="B288" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="D288" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>19512</v>
+        <v>11344</v>
       </c>
       <c r="B289" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C289" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="D289" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>6894</v>
+        <v>8952</v>
       </c>
       <c r="B290" t="s">
-        <v>660</v>
-      </c>
-      <c r="C290" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D290" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>3889</v>
+        <v>6517</v>
       </c>
       <c r="B291" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D291" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>11344</v>
+        <v>8088</v>
       </c>
       <c r="B292" t="s">
-        <v>665</v>
-      </c>
-      <c r="C292" t="s">
         <v>666</v>
       </c>
       <c r="D292" t="s">
@@ -7038,7 +6983,7 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>8952</v>
+        <v>8117</v>
       </c>
       <c r="B293" t="s">
         <v>668</v>
@@ -7049,215 +6994,218 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>6517</v>
+        <v>4313</v>
       </c>
       <c r="B294" t="s">
         <v>670</v>
       </c>
+      <c r="C294" t="s">
+        <v>671</v>
+      </c>
       <c r="D294" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>8088</v>
+        <v>9735</v>
       </c>
       <c r="B295" t="s">
-        <v>672</v>
+        <v>673</v>
+      </c>
+      <c r="C295" t="s">
+        <v>674</v>
       </c>
       <c r="D295" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>8117</v>
+        <v>7514</v>
       </c>
       <c r="B296" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="D296" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>4313</v>
+        <v>3881</v>
       </c>
       <c r="B297" t="s">
-        <v>676</v>
-      </c>
-      <c r="C297" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D297" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>11860</v>
+        <v>7211</v>
       </c>
       <c r="B298" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D298" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>9735</v>
+        <v>21594</v>
       </c>
       <c r="B299" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C299" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D299" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>7514</v>
+        <v>9792</v>
       </c>
       <c r="B300" t="s">
-        <v>684</v>
+        <v>685</v>
+      </c>
+      <c r="C300" t="s">
+        <v>686</v>
       </c>
       <c r="D300" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>3881</v>
+        <v>4701</v>
       </c>
       <c r="B301" t="s">
-        <v>686</v>
+        <v>688</v>
+      </c>
+      <c r="C301" t="s">
+        <v>689</v>
       </c>
       <c r="D301" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>7211</v>
+        <v>10038</v>
       </c>
       <c r="B302" t="s">
-        <v>688</v>
+        <v>691</v>
+      </c>
+      <c r="C302" t="s">
+        <v>692</v>
       </c>
       <c r="D302" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>21594</v>
+        <v>10144</v>
       </c>
       <c r="B303" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="C303" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="D303" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>9792</v>
+        <v>6888</v>
       </c>
       <c r="B304" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C304" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="D304" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>4701</v>
+        <v>19343</v>
       </c>
       <c r="B305" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="C305" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="D305" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>10038</v>
+        <v>7942</v>
       </c>
       <c r="B306" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="C306" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="D306" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>10144</v>
+        <v>4457</v>
       </c>
       <c r="B307" t="s">
-        <v>702</v>
-      </c>
-      <c r="C307" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="D307" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>6888</v>
+        <v>5063</v>
       </c>
       <c r="B308" t="s">
-        <v>705</v>
-      </c>
-      <c r="C308" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="D308" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>19343</v>
+        <v>3914</v>
       </c>
       <c r="B309" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C309" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="D309" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>7942</v>
+        <v>8996</v>
       </c>
       <c r="B310" t="s">
-        <v>711</v>
-      </c>
-      <c r="C310" t="s">
         <v>712</v>
       </c>
       <c r="D310" t="s">
@@ -7266,7 +7214,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>4457</v>
+        <v>7645</v>
       </c>
       <c r="B311" t="s">
         <v>714</v>
@@ -7277,412 +7225,406 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>5063</v>
+        <v>19700</v>
       </c>
       <c r="B312" t="s">
         <v>716</v>
       </c>
+      <c r="C312" t="s">
+        <v>717</v>
+      </c>
       <c r="D312" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>3914</v>
+        <v>9884</v>
       </c>
       <c r="B313" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C313" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D313" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>8996</v>
+        <v>6066</v>
       </c>
       <c r="B314" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="D314" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>7645</v>
+        <v>9758</v>
       </c>
       <c r="B315" t="s">
-        <v>722</v>
+        <v>724</v>
+      </c>
+      <c r="C315" t="s">
+        <v>725</v>
       </c>
       <c r="D315" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>19700</v>
+        <v>20467</v>
       </c>
       <c r="B316" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="C316" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="D316" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>9884</v>
+        <v>21414</v>
       </c>
       <c r="B317" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="C317" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D317" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>6066</v>
+        <v>2795</v>
       </c>
       <c r="B318" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="D318" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>9758</v>
+        <v>10480</v>
       </c>
       <c r="B319" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="C319" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="D319" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>20467</v>
+        <v>7296</v>
       </c>
       <c r="B320" t="s">
-        <v>735</v>
-      </c>
-      <c r="C320" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="D320" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>21414</v>
+        <v>3851</v>
       </c>
       <c r="B321" t="s">
-        <v>738</v>
-      </c>
-      <c r="C321" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D321" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>2795</v>
+        <v>4447</v>
       </c>
       <c r="B322" t="s">
-        <v>741</v>
+        <v>742</v>
+      </c>
+      <c r="C322" t="s">
+        <v>743</v>
       </c>
       <c r="D322" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>10480</v>
+        <v>2781</v>
       </c>
       <c r="B323" t="s">
-        <v>743</v>
-      </c>
-      <c r="C323" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D323" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>7296</v>
+        <v>4780</v>
       </c>
       <c r="B324" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D324" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>3851</v>
+        <v>5456</v>
       </c>
       <c r="B325" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D325" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>4447</v>
+        <v>4319</v>
       </c>
       <c r="B326" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C326" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D326" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>2781</v>
+        <v>6613</v>
       </c>
       <c r="B327" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="D327" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>4780</v>
+        <v>7369</v>
       </c>
       <c r="B328" t="s">
-        <v>755</v>
+        <v>756</v>
+      </c>
+      <c r="C328" t="s">
+        <v>757</v>
       </c>
       <c r="D328" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>5456</v>
+        <v>7384</v>
       </c>
       <c r="B329" t="s">
-        <v>757</v>
+        <v>759</v>
+      </c>
+      <c r="C329" t="s">
+        <v>760</v>
       </c>
       <c r="D329" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>4319</v>
+        <v>2828</v>
       </c>
       <c r="B330" t="s">
-        <v>759</v>
-      </c>
-      <c r="C330" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="D330" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>6613</v>
+        <v>6166</v>
       </c>
       <c r="B331" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="D331" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>7369</v>
+        <v>4747</v>
       </c>
       <c r="B332" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C332" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="D332" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>7384</v>
+        <v>2805</v>
       </c>
       <c r="B333" t="s">
-        <v>767</v>
-      </c>
-      <c r="C333" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D333" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>2828</v>
+        <v>4557</v>
       </c>
       <c r="B334" t="s">
-        <v>770</v>
+        <v>771</v>
+      </c>
+      <c r="C334" t="s">
+        <v>772</v>
       </c>
       <c r="D334" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>6166</v>
+        <v>7661</v>
       </c>
       <c r="B335" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="D335" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>4747</v>
+        <v>2820</v>
       </c>
       <c r="B336" t="s">
-        <v>774</v>
-      </c>
-      <c r="C336" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D336" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>2805</v>
+        <v>7899</v>
       </c>
       <c r="B337" t="s">
-        <v>777</v>
+        <v>778</v>
+      </c>
+      <c r="C337" t="s">
+        <v>779</v>
       </c>
       <c r="D337" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>4557</v>
+        <v>6239</v>
       </c>
       <c r="B338" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="C338" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="D338" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>7661</v>
+        <v>8969</v>
       </c>
       <c r="B339" t="s">
-        <v>782</v>
+        <v>784</v>
+      </c>
+      <c r="C339" t="s">
+        <v>785</v>
       </c>
       <c r="D339" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>11861</v>
+        <v>3891</v>
       </c>
       <c r="B340" t="s">
-        <v>784</v>
-      </c>
-      <c r="C340" t="s">
-        <v>497</v>
+        <v>787</v>
       </c>
       <c r="D340" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>2820</v>
+        <v>4322</v>
       </c>
       <c r="B341" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="D341" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>7899</v>
+        <v>6962</v>
       </c>
       <c r="B342" t="s">
-        <v>788</v>
-      </c>
-      <c r="C342" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="D342" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>6239</v>
+        <v>5439</v>
       </c>
       <c r="B343" t="s">
-        <v>791</v>
-      </c>
-      <c r="C343" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D343" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>8969</v>
+        <v>6985</v>
       </c>
       <c r="B344" t="s">
-        <v>794</v>
-      </c>
-      <c r="C344" t="s">
         <v>795</v>
       </c>
       <c r="D344" t="s">
@@ -7691,609 +7633,518 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>3891</v>
+        <v>5075</v>
       </c>
       <c r="B345" t="s">
         <v>797</v>
       </c>
+      <c r="C345" t="s">
+        <v>798</v>
+      </c>
       <c r="D345" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>4322</v>
+        <v>4225</v>
       </c>
       <c r="B346" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D346" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>6962</v>
+        <v>4338</v>
       </c>
       <c r="B347" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D347" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>5439</v>
+        <v>8962</v>
       </c>
       <c r="B348" t="s">
-        <v>803</v>
+        <v>804</v>
+      </c>
+      <c r="C348" t="s">
+        <v>805</v>
       </c>
       <c r="D348" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>6985</v>
+        <v>4740</v>
       </c>
       <c r="B349" t="s">
-        <v>805</v>
+        <v>807</v>
+      </c>
+      <c r="C349" t="s">
+        <v>808</v>
       </c>
       <c r="D349" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>5075</v>
+        <v>4465</v>
       </c>
       <c r="B350" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="C350" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="D350" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>4225</v>
+        <v>4554</v>
       </c>
       <c r="B351" t="s">
-        <v>810</v>
+        <v>813</v>
+      </c>
+      <c r="C351" t="s">
+        <v>814</v>
       </c>
       <c r="D351" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>4338</v>
+        <v>3893</v>
       </c>
       <c r="B352" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="D352" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>8962</v>
+        <v>11864</v>
       </c>
       <c r="B353" t="s">
-        <v>814</v>
-      </c>
-      <c r="C353" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="D353" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>4740</v>
+        <v>4335</v>
       </c>
       <c r="B354" t="s">
-        <v>817</v>
-      </c>
-      <c r="C354" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="D354" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>4465</v>
+        <v>4325</v>
       </c>
       <c r="B355" t="s">
-        <v>820</v>
-      </c>
-      <c r="C355" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D355" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>4554</v>
+        <v>4469</v>
       </c>
       <c r="B356" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C356" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D356" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>11855</v>
+        <v>7887</v>
       </c>
       <c r="B357" t="s">
-        <v>826</v>
+        <v>827</v>
+      </c>
+      <c r="C357" t="s">
+        <v>828</v>
       </c>
       <c r="D357" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>3893</v>
+        <v>4205</v>
       </c>
       <c r="B358" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="D358" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>11864</v>
+        <v>4571</v>
       </c>
       <c r="B359" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="D359" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>4335</v>
+        <v>5087</v>
       </c>
       <c r="B360" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="D360" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>4325</v>
+        <v>4540</v>
       </c>
       <c r="B361" t="s">
-        <v>834</v>
+        <v>836</v>
+      </c>
+      <c r="C361" t="s">
+        <v>837</v>
       </c>
       <c r="D361" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>4469</v>
+        <v>4095</v>
       </c>
       <c r="B362" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="C362" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="D362" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>7887</v>
+        <v>4164</v>
       </c>
       <c r="B363" t="s">
-        <v>839</v>
-      </c>
-      <c r="C363" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="D363" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>4205</v>
+        <v>4149</v>
       </c>
       <c r="B364" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="D364" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>4571</v>
+        <v>4328</v>
       </c>
       <c r="B365" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="D365" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>5087</v>
+        <v>4079</v>
       </c>
       <c r="B366" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="D366" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>4540</v>
+        <v>4185</v>
       </c>
       <c r="B367" t="s">
-        <v>848</v>
-      </c>
-      <c r="C367" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D367" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>4095</v>
+        <v>3895</v>
       </c>
       <c r="B368" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C368" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="D368" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>4164</v>
+        <v>4172</v>
       </c>
       <c r="B369" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D369" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>4149</v>
+        <v>4134</v>
       </c>
       <c r="B370" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D370" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>4328</v>
+        <v>4198</v>
       </c>
       <c r="B371" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D371" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>4079</v>
+        <v>5348</v>
       </c>
       <c r="B372" t="s">
-        <v>860</v>
+        <v>861</v>
+      </c>
+      <c r="C372" t="s">
+        <v>862</v>
       </c>
       <c r="D372" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>4185</v>
+        <v>4192</v>
       </c>
       <c r="B373" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="D373" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>3895</v>
+        <v>4475</v>
       </c>
       <c r="B374" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="C374" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="D374" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>4172</v>
+        <v>4125</v>
       </c>
       <c r="B375" t="s">
-        <v>867</v>
+        <v>869</v>
+      </c>
+      <c r="C375" t="s">
+        <v>870</v>
       </c>
       <c r="D375" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>4089</v>
+        <v>4047</v>
       </c>
       <c r="B376" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="D376" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>4134</v>
+        <v>4024</v>
       </c>
       <c r="B377" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="D377" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>4198</v>
+        <v>5103</v>
       </c>
       <c r="B378" t="s">
-        <v>873</v>
+        <v>876</v>
+      </c>
+      <c r="C378" t="s">
+        <v>877</v>
       </c>
       <c r="D378" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>5348</v>
+        <v>4066</v>
       </c>
       <c r="B379" t="s">
-        <v>875</v>
-      </c>
-      <c r="C379" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="D379" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>4192</v>
+        <v>4331</v>
       </c>
       <c r="B380" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="D380" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>4475</v>
+        <v>5431</v>
       </c>
       <c r="B381" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="C381" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="D381" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>4125</v>
+        <v>5107</v>
       </c>
       <c r="B382" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="C382" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="D382" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>4047</v>
+        <v>5249</v>
       </c>
       <c r="B383" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="D383" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>4024</v>
+        <v>5164</v>
       </c>
       <c r="B384" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="D384" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>5103</v>
+        <v>5120</v>
       </c>
       <c r="B385" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="C385" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="D385" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>4066</v>
+        <v>5148</v>
       </c>
       <c r="B386" t="s">
-        <v>893</v>
+        <v>896</v>
+      </c>
+      <c r="C386" t="s">
+        <v>897</v>
       </c>
       <c r="D386" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A387">
-        <v>4331</v>
-      </c>
-      <c r="B387" t="s">
-        <v>895</v>
-      </c>
-      <c r="D387" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A388">
-        <v>5431</v>
-      </c>
-      <c r="B388" t="s">
-        <v>897</v>
-      </c>
-      <c r="C388" t="s">
         <v>898</v>
-      </c>
-      <c r="D388" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A389">
-        <v>5107</v>
-      </c>
-      <c r="B389" t="s">
-        <v>900</v>
-      </c>
-      <c r="C389" t="s">
-        <v>901</v>
-      </c>
-      <c r="D389" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A390">
-        <v>5249</v>
-      </c>
-      <c r="B390" t="s">
-        <v>903</v>
-      </c>
-      <c r="D390" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A391">
-        <v>11859</v>
-      </c>
-      <c r="B391" t="s">
-        <v>905</v>
-      </c>
-      <c r="C391" t="s">
-        <v>881</v>
-      </c>
-      <c r="D391" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A392">
-        <v>5164</v>
-      </c>
-      <c r="B392" t="s">
-        <v>907</v>
-      </c>
-      <c r="D392" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A393">
-        <v>5120</v>
-      </c>
-      <c r="B393" t="s">
-        <v>909</v>
-      </c>
-      <c r="C393" t="s">
-        <v>910</v>
-      </c>
-      <c r="D393" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A394">
-        <v>5148</v>
-      </c>
-      <c r="B394" t="s">
-        <v>912</v>
-      </c>
-      <c r="C394" t="s">
-        <v>913</v>
-      </c>
-      <c r="D394" t="s">
-        <v>914</v>
       </c>
     </row>
   </sheetData>
